--- a/conf/excel/C_CommunityArea.xlsx
+++ b/conf/excel/C_CommunityArea.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\配置文件相关\Final-newCA-config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\长期文件\学习资料\综合学习资料\tencent\配置文件相关\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72879FCA-E9A2-41A9-9FB6-0BE3EB1647BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="2670" windowWidth="21600" windowHeight="12390"/>
+    <workbookView xWindow="1320" yWindow="1125" windowWidth="23580" windowHeight="10035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C_CommunityArea.conf" sheetId="1" r:id="rId1"/>
@@ -27,8 +28,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="C_CommunityArea" type="6" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="C_CommunityArea" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr sourceFile="E:\学习资料\综合学习资料\tencent\data\old-newCA-config\C_CommunityArea.conf">
       <textFields>
         <textField/>
@@ -204,9 +205,6 @@
     <t>火车站</t>
   </si>
   <si>
-    <t>name%=%殡仪馆;category_code=142900 || category_code=208099</t>
-  </si>
-  <si>
     <t>catalog=090311</t>
   </si>
   <si>
@@ -285,13 +283,17 @@
   </si>
   <si>
     <t>category_code%=23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name%=%殡仪馆;(category_code=142900 || category_code=208099)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -323,12 +325,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -358,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -371,6 +379,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -390,7 +401,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="C_CommunityArea_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="C_CommunityArea_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -655,11 +666,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="A9:C21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -783,111 +794,111 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
